--- a/docs/微博营销系统报价方案.xlsx
+++ b/docs/微博营销系统报价方案.xlsx
@@ -256,13 +256,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,163 +606,163 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
